--- a/results.xlsx
+++ b/results.xlsx
@@ -25,13 +25,13 @@
     <t>Reg Time</t>
   </si>
   <si>
-    <t>vasiliy</t>
-  </si>
-  <si>
-    <t>vasilev@mail.ru</t>
-  </si>
-  <si>
-    <t>Vasilevich123</t>
+    <t>igor</t>
+  </si>
+  <si>
+    <t>igor@yandex.ru</t>
+  </si>
+  <si>
+    <t>Igor123</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>43894.385446886576</v>
+        <v>43894.459647372685</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -25,13 +25,13 @@
     <t>Reg Time</t>
   </si>
   <si>
-    <t>igor</t>
-  </si>
-  <si>
-    <t>igor@yandex.ru</t>
-  </si>
-  <si>
-    <t>Igor123</t>
+    <t>ivan</t>
+  </si>
+  <si>
+    <t>ivanov@mail.ru</t>
+  </si>
+  <si>
+    <t>Ivanovich123</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>43894.459647372685</v>
+        <v>43896.330456435186</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -23,6 +23,33 @@
   </si>
   <si>
     <t>Reg Time</t>
+  </si>
+  <si>
+    <t>ivan</t>
+  </si>
+  <si>
+    <t>ivanov@mail.ru</t>
+  </si>
+  <si>
+    <t>Ivanovich123</t>
+  </si>
+  <si>
+    <t>anton</t>
+  </si>
+  <si>
+    <t>antonov@mail.ru</t>
+  </si>
+  <si>
+    <t>Antonovich123</t>
+  </si>
+  <si>
+    <t>vasiliy</t>
+  </si>
+  <si>
+    <t>vasilev@mail.ru</t>
+  </si>
+  <si>
+    <t>Vasilevich123</t>
   </si>
   <si>
     <t>igor</t>
@@ -409,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="35" customWidth="1"/>
@@ -441,7 +468,49 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>43894.459647372685</v>
+        <v>43898.756711643524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43898.75674146991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43898.75675168981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43898.756765625</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>43898.756711643524</v>
+        <v>43900.79450552083</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>43898.75674146991</v>
+        <v>43900.794551099534</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>43898.75675168981</v>
+        <v>43900.79456550926</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>43898.756765625</v>
+        <v>43900.794576608794</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Igor123</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>qwer@mail.ru</t>
+  </si>
+  <si>
+    <t>Qwe123</t>
   </si>
 </sst>
 </file>
@@ -436,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="35" customWidth="1"/>
@@ -468,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>43900.79450552083</v>
+        <v>43901.28201447916</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>43900.794551099534</v>
+        <v>43901.28210020834</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>43900.79456550926</v>
+        <v>43901.28211300926</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,7 +519,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>43900.794576608794</v>
+        <v>43901.2821244213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43901.282133009256</v>
       </c>
     </row>
   </sheetData>
